--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
@@ -814,7 +814,7 @@
         <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G3" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
         <v>3.15</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
         <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
@@ -835,7 +835,7 @@
         <v>2.12</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="G2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA2" t="n">
         <v>1000</v>
       </c>
-      <c r="H2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="AB2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI2" t="n">
         <v>1000</v>
       </c>
-      <c r="J2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="AJ2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM2" t="n">
         <v>1000</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="G3" t="n">
         <v>2.2</v>
@@ -835,7 +835,7 @@
         <v>2.12</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,16 +691,16 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
         <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
@@ -721,7 +721,7 @@
         <v>2.1</v>
       </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
         <v>22</v>
@@ -736,31 +736,31 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
         <v>110</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK2" t="n">
         <v>21</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>23</v>
       </c>
       <c r="AL2" t="n">
         <v>48</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,112 +802,247 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="H3" t="n">
         <v>3.15</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Cucuta Deportivo</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Jaguares de Cordoba</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,13 +694,13 @@
         <v>3.15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
         <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
@@ -721,7 +721,7 @@
         <v>2.1</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
         <v>22</v>
@@ -733,19 +733,19 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
         <v>110</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -757,10 +757,10 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
         <v>48</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="G3" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.24</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>2.02</v>
+        <v>4.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>2.52</v>
       </c>
       <c r="T3" t="n">
-        <v>1.03</v>
+        <v>1.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.03</v>
+        <v>2.24</v>
       </c>
       <c r="V3" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W3" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -937,111 +937,381 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="G4" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I4" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20:10:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Internacional de Palmira</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Atletico Huila</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K5" t="n">
+        <v>980</v>
+      </c>
+      <c r="L5" t="n">
         <v>1.01</v>
       </c>
-      <c r="N4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="M5" t="n">
         <v>1.01</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="N5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.14</v>
       </c>
-      <c r="S4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T4" t="n">
+      <c r="S5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.04</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U5" t="n">
         <v>1.04</v>
       </c>
-      <c r="V4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="V5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>22:20:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Boca Juniors de Cali</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Boyaca Patriotas</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.5</v>
       </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO4" t="n">
+      <c r="P6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO6" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
@@ -670,7 +670,7 @@
         <v>1.58</v>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="H2" t="n">
         <v>4.8</v>
@@ -679,7 +679,7 @@
         <v>7.8</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K2" t="n">
         <v>4.6</v>
@@ -700,7 +700,7 @@
         <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
@@ -718,10 +718,10 @@
         <v>1.14</v>
       </c>
       <c r="W2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
         <v>22</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC2" t="n">
         <v>10</v>
@@ -742,7 +742,7 @@
         <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
@@ -760,7 +760,7 @@
         <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
         <v>48</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G3" t="n">
         <v>2.2</v>
@@ -820,7 +820,7 @@
         <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -865,7 +865,7 @@
         <v>32</v>
       </c>
       <c r="AA3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>14</v>
@@ -877,7 +877,7 @@
         <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>17</v>
@@ -895,13 +895,13 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
         <v>15</v>
@@ -952,7 +952,7 @@
         <v>2.66</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -988,7 +988,7 @@
         <v>1.33</v>
       </c>
       <c r="W4" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
         <v>1000</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="G6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H6" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="I6" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="J6" t="n">
-        <v>2.74</v>
+        <v>2.98</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="R6" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="T6" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="U6" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="W6" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="G2" t="n">
         <v>1.89</v>
       </c>
       <c r="H2" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>4.6</v>
@@ -694,10 +694,10 @@
         <v>3.15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" t="n">
         <v>1.86</v>
@@ -709,13 +709,13 @@
         <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="W2" t="n">
         <v>2.12</v>
@@ -724,46 +724,46 @@
         <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG2" t="n">
         <v>11</v>
       </c>
-      <c r="AG2" t="n">
-        <v>12</v>
-      </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
         <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>4.3</v>
@@ -832,28 +832,28 @@
         <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S3" t="n">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="T3" t="n">
         <v>1.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V3" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W3" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="X3" t="n">
         <v>23</v>
@@ -880,10 +880,10 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
         <v>20</v>
@@ -895,7 +895,7 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
         <v>34</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
@@ -955,7 +955,7 @@
         <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
@@ -985,7 +985,7 @@
         <v>1.81</v>
       </c>
       <c r="V4" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W4" t="n">
         <v>1.51</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="G5" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.62</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>3.55</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.73</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.04</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="W5" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="G6" t="n">
         <v>4.8</v>
@@ -1216,19 +1216,19 @@
         <v>2.12</v>
       </c>
       <c r="I6" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="J6" t="n">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
         <v>2.56</v>
@@ -1246,7 +1246,7 @@
         <v>1.23</v>
       </c>
       <c r="S6" t="n">
-        <v>4.7</v>
+        <v>3.95</v>
       </c>
       <c r="T6" t="n">
         <v>1.94</v>
@@ -1255,7 +1255,7 @@
         <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="W6" t="n">
         <v>1.29</v>
@@ -1276,7 +1276,7 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G2" t="n">
         <v>1.89</v>
@@ -679,7 +679,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>4.6</v>
@@ -715,7 +715,7 @@
         <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W2" t="n">
         <v>2.12</v>
@@ -763,7 +763,7 @@
         <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.02</v>
+        <v>1.62</v>
       </c>
       <c r="G3" t="n">
-        <v>2.04</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="S3" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="T3" t="n">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>2.26</v>
+        <v>1.98</v>
       </c>
       <c r="V3" t="n">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>1.96</v>
+        <v>2.5</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z3" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB3" t="n">
-        <v>14</v>
+        <v>9.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK3" t="n">
         <v>17.5</v>
       </c>
-      <c r="AG3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>22</v>
-      </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO3" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,78 +923,78 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.24</v>
+        <v>1.99</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>2.04</v>
       </c>
       <c r="H4" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.66</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.45</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.2</v>
-      </c>
       <c r="S4" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.98</v>
+        <v>1.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.81</v>
+        <v>2.26</v>
       </c>
       <c r="V4" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.51</v>
+        <v>1.96</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,46 +1003,46 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -1058,72 +1058,72 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="K5" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="O5" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="P5" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R5" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="S5" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="V5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W5" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1193,125 +1193,260 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>20:10:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Internacional de Palmira</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Atletico Huila</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>22:20:00</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Boca Juniors de Cali</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Boyaca Patriotas</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="F7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.12</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>2.42</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>2.8</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>3.9</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L7" t="n">
         <v>1.42</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M7" t="n">
         <v>1.08</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N7" t="n">
         <v>2.56</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O7" t="n">
         <v>1.44</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>1.62</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>2.12</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R7" t="n">
         <v>1.23</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S7" t="n">
         <v>3.95</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T7" t="n">
         <v>1.94</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U7" t="n">
         <v>1.84</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V7" t="n">
         <v>1.71</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W7" t="n">
         <v>1.29</v>
       </c>
-      <c r="X6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="X7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC7" t="n">
         <v>9</v>
       </c>
-      <c r="AD6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AD7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO7" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="G2" t="n">
         <v>1.89</v>
@@ -700,7 +700,7 @@
         <v>1.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
@@ -724,7 +724,7 @@
         <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
         <v>48</v>
@@ -739,7 +739,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -811,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J3" t="n">
         <v>4.1</v>
@@ -820,7 +820,7 @@
         <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -856,55 +856,55 @@
         <v>2.5</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Z3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
         <v>95</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK3" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM3" t="n">
         <v>140</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
         <v>130</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
         <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="K4" t="n">
         <v>4.3</v>
@@ -970,7 +970,7 @@
         <v>2.14</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
         <v>1.45</v>
@@ -979,7 +979,7 @@
         <v>2.8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U4" t="n">
         <v>2.26</v>
@@ -988,14 +988,14 @@
         <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="X4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y4" t="n">
         <v>21</v>
       </c>
-      <c r="Y4" t="n">
-        <v>20</v>
-      </c>
       <c r="Z4" t="n">
         <v>1000</v>
       </c>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>18.5</v>
@@ -1015,7 +1015,7 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG4" t="n">
         <v>11.5</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="G5" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="J5" t="n">
         <v>2.66</v>
       </c>
       <c r="K5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="P5" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="R5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="U5" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V5" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="W5" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1207,37 +1207,37 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="G6" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.45</v>
+        <v>2.94</v>
       </c>
       <c r="I6" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="J6" t="n">
         <v>2.88</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.48</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P6" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q6" t="n">
         <v>2.36</v>
@@ -1246,19 +1246,19 @@
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T6" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V6" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="W6" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1285,7 +1285,7 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
         <v>1000</v>
@@ -1345,7 +1345,7 @@
         <v>3.55</v>
       </c>
       <c r="G7" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="H7" t="n">
         <v>2.12</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G2" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="I2" t="n">
         <v>6.6</v>
@@ -682,10 +682,10 @@
         <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -694,16 +694,16 @@
         <v>3.15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
         <v>1.84</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
         <v>3</v>
@@ -715,10 +715,10 @@
         <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
@@ -727,7 +727,7 @@
         <v>20</v>
       </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.62</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.65</v>
-      </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="I3" t="n">
         <v>7.4</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.29</v>
@@ -832,7 +832,7 @@
         <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" t="n">
         <v>1.75</v>
@@ -841,73 +841,73 @@
         <v>1.42</v>
       </c>
       <c r="S3" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T3" t="n">
         <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
         <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z3" t="n">
         <v>60</v>
       </c>
       <c r="AA3" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>95</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AJ3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
         <v>10</v>
       </c>
       <c r="AO3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I4" t="n">
         <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.28</v>
@@ -973,28 +973,28 @@
         <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S4" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T4" t="n">
         <v>1.64</v>
       </c>
       <c r="U4" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V4" t="n">
         <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
@@ -1012,19 +1012,19 @@
         <v>18.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ4" t="n">
         <v>30</v>
@@ -1036,13 +1036,13 @@
         <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.58</v>
+        <v>2.28</v>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>2.46</v>
       </c>
       <c r="H5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="I5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.66</v>
-      </c>
       <c r="K5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
         <v>1.44</v>
@@ -1096,37 +1096,37 @@
         <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="O5" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P5" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S5" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,28 +1150,28 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
@@ -1207,61 +1207,61 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="H6" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
         <v>3.65</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M6" t="n">
         <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U6" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V6" t="n">
         <v>1.38</v>
       </c>
       <c r="W6" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1276,7 +1276,7 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1285,7 +1285,7 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
         <v>1000</v>
@@ -1345,7 +1345,7 @@
         <v>3.55</v>
       </c>
       <c r="G7" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="H7" t="n">
         <v>2.12</v>
@@ -1354,7 +1354,7 @@
         <v>2.42</v>
       </c>
       <c r="J7" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
         <v>3.9</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="G2" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="H2" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="I2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
         <v>1.37</v>
@@ -697,10 +697,10 @@
         <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
         <v>1.4</v>
@@ -715,10 +715,10 @@
         <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
@@ -727,13 +727,13 @@
         <v>20</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC2" t="n">
         <v>9.800000000000001</v>
@@ -763,13 +763,13 @@
         <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,76 +802,76 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.59</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.62</v>
-      </c>
       <c r="H3" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
         <v>4.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="S3" t="n">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="T3" t="n">
         <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
         <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="X3" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
         <v>24</v>
       </c>
       <c r="Z3" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AA3" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AB3" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
         <v>25</v>
@@ -880,34 +880,34 @@
         <v>95</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH3" t="n">
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
         <v>4.1</v>
@@ -985,37 +985,37 @@
         <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W4" t="n">
         <v>1.9</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE4" t="n">
         <v>44</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
         <v>11.5</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G5" t="n">
         <v>2.46</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -1096,7 +1096,7 @@
         <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="O5" t="n">
         <v>1.45</v>
@@ -1120,19 +1120,19 @@
         <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
@@ -1141,10 +1141,10 @@
         <v>9.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,7 +1153,7 @@
         <v>14</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
         <v>24</v>
@@ -1162,13 +1162,13 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM5" t="n">
         <v>190</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G6" t="n">
         <v>2.68</v>
@@ -1222,7 +1222,7 @@
         <v>2.86</v>
       </c>
       <c r="K6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.49</v>
@@ -1261,7 +1261,7 @@
         <v>1.59</v>
       </c>
       <c r="X6" t="n">
-        <v>90</v>
+        <v>18.5</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1276,7 +1276,7 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="G7" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I7" t="n">
         <v>2.42</v>
@@ -1357,10 +1357,10 @@
         <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
@@ -1390,10 +1390,10 @@
         <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
@@ -667,103 +667,103 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H2" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="I2" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.37</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.4</v>
-      </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T2" t="n">
         <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>12.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3">
@@ -805,10 +805,10 @@
         <v>1.58</v>
       </c>
       <c r="G3" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
         <v>7.2</v>
@@ -817,16 +817,16 @@
         <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.24</v>
@@ -835,64 +835,64 @@
         <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="U3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="X3" t="n">
         <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z3" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
         <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="AF3" t="n">
         <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
         <v>210</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK3" t="n">
         <v>16</v>
@@ -904,10 +904,10 @@
         <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -940,37 +940,37 @@
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
         <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R4" t="n">
         <v>1.47</v>
@@ -979,16 +979,16 @@
         <v>2.78</v>
       </c>
       <c r="T4" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V4" t="n">
         <v>1.33</v>
       </c>
       <c r="W4" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="X4" t="n">
         <v>20</v>
@@ -997,10 +997,10 @@
         <v>17.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
         <v>12</v>
@@ -1012,37 +1012,37 @@
         <v>16.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="AF4" t="n">
         <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="AJ4" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AM4" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="AN4" t="n">
         <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G5" t="n">
         <v>2.46</v>
@@ -1084,28 +1084,28 @@
         <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L5" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O5" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P5" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R5" t="n">
         <v>1.22</v>
@@ -1120,16 +1120,16 @@
         <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W5" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X5" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
         <v>26</v>
@@ -1141,16 +1141,16 @@
         <v>9.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>32</v>
+        <v>16.5</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
         <v>12</v>
@@ -1171,13 +1171,13 @@
         <v>150</v>
       </c>
       <c r="AM5" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -1207,55 +1207,55 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="G6" t="n">
         <v>2.68</v>
       </c>
       <c r="H6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
         <v>2.86</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
         <v>2.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="P6" t="n">
         <v>1.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="T6" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W6" t="n">
         <v>1.59</v>
@@ -1273,7 +1273,7 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC6" t="n">
         <v>17.5</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="G7" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I7" t="n">
         <v>2.42</v>
@@ -1357,43 +1357,43 @@
         <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.56</v>
+        <v>2.84</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P7" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="R7" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S7" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U7" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W7" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
@@ -667,103 +667,103 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="G2" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.83</v>
       </c>
-      <c r="H2" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
         <v>19.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC2" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC2" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>12.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="G3" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="I3" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -829,85 +829,85 @@
         <v>4.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S3" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T3" t="n">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>2.56</v>
+        <v>2.96</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Z3" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AE3" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
         <v>9.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="G4" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="H4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
         <v>3.85</v>
@@ -961,43 +961,43 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="R4" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="T4" t="n">
         <v>1.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V4" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="X4" t="n">
         <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z4" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1006,43 +1006,43 @@
         <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH4" t="n">
         <v>16.5</v>
       </c>
-      <c r="AE4" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>17</v>
-      </c>
       <c r="AI4" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AM4" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>210</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G5" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -1087,7 +1087,7 @@
         <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
         <v>1.53</v>
@@ -1096,40 +1096,40 @@
         <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="O5" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P5" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="R5" t="n">
         <v>1.22</v>
       </c>
       <c r="S5" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
         <v>26</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD5" t="n">
         <v>16.5</v>
@@ -1150,31 +1150,31 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG5" t="n">
         <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ5" t="n">
         <v>34</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="n">
         <v>150</v>
       </c>
       <c r="AM5" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO5" t="n">
         <v>80</v>
@@ -1207,61 +1207,61 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.54</v>
+        <v>1.94</v>
       </c>
       <c r="G6" t="n">
-        <v>2.68</v>
+        <v>2.14</v>
       </c>
       <c r="H6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.1</v>
       </c>
-      <c r="I6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.86</v>
-      </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="O6" t="n">
         <v>1.56</v>
       </c>
       <c r="P6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="S6" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="T6" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="V6" t="n">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>1.59</v>
+        <v>1.88</v>
       </c>
       <c r="X6" t="n">
-        <v>18.5</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>17.5</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1285,7 +1285,7 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="n">
         <v>1000</v>
@@ -1297,10 +1297,10 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G7" t="n">
         <v>4.2</v>
@@ -1351,7 +1351,7 @@
         <v>2.16</v>
       </c>
       <c r="I7" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J7" t="n">
         <v>3.05</v>
@@ -1363,10 +1363,10 @@
         <v>1.54</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.46</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.66</v>
+        <v>2.06</v>
       </c>
       <c r="G2" t="n">
-        <v>1.77</v>
+        <v>2.08</v>
       </c>
       <c r="H2" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="Q2" t="n">
         <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="V2" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="W2" t="n">
-        <v>2.28</v>
+        <v>1.94</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>
       </c>
       <c r="AH2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK2" t="n">
         <v>22</v>
       </c>
-      <c r="AI2" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>20</v>
-      </c>
       <c r="AL2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -802,85 +802,85 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="J3" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="S3" t="n">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="T3" t="n">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD3" t="n">
         <v>30</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>340</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>32</v>
       </c>
       <c r="AE3" t="n">
         <v>130</v>
       </c>
       <c r="AF3" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AG3" t="n">
         <v>9.6</v>
@@ -892,22 +892,22 @@
         <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AK3" t="n">
         <v>15</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -943,79 +943,79 @@
         <v>2.14</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
         <v>3.85</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S4" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="U4" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
         <v>1.87</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
         <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
@@ -1024,25 +1024,25 @@
         <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK4" t="n">
         <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AN4" t="n">
         <v>12.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G5" t="n">
         <v>2.32</v>
       </c>
-      <c r="G5" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H5" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="J5" t="n">
         <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L5" t="n">
         <v>1.53</v>
@@ -1099,58 +1099,58 @@
         <v>2.74</v>
       </c>
       <c r="O5" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P5" t="n">
         <v>1.59</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="R5" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W5" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y5" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="n">
         <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="AG5" t="n">
         <v>12</v>
@@ -1162,16 +1162,16 @@
         <v>90</v>
       </c>
       <c r="AJ5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AN5" t="n">
         <v>32</v>
@@ -1207,40 +1207,40 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G6" t="n">
         <v>2.14</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="n">
         <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="O6" t="n">
         <v>1.56</v>
       </c>
       <c r="P6" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="R6" t="n">
         <v>1.16</v>
@@ -1249,10 +1249,10 @@
         <v>5.7</v>
       </c>
       <c r="T6" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="U6" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="V6" t="n">
         <v>1.22</v>
@@ -1261,7 +1261,7 @@
         <v>1.88</v>
       </c>
       <c r="X6" t="n">
-        <v>90</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="AK6" t="n">
         <v>140</v>
@@ -1345,10 +1345,10 @@
         <v>3.6</v>
       </c>
       <c r="G7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I7" t="n">
         <v>2.4</v>
@@ -1357,52 +1357,52 @@
         <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
         <v>1.54</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="O7" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="Q7" t="n">
         <v>2.34</v>
       </c>
       <c r="R7" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W7" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1411,19 +1411,19 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH7" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-11.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.06</v>
+        <v>1.05</v>
       </c>
       <c r="G2" t="n">
-        <v>2.08</v>
+        <v>1.06</v>
       </c>
       <c r="H2" t="n">
-        <v>4.8</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>5.1</v>
+        <v>660</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>22</v>
       </c>
       <c r="K2" t="n">
-        <v>3.25</v>
+        <v>27</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>1.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="S2" t="n">
-        <v>3.6</v>
+        <v>2.74</v>
       </c>
       <c r="T2" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="U2" t="n">
-        <v>1.96</v>
+        <v>1.48</v>
       </c>
       <c r="V2" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.94</v>
+        <v>18</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH2" t="n">
         <v>36</v>
       </c>
-      <c r="AA2" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>19</v>
-      </c>
       <c r="AI2" t="n">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>4.9</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="AN2" t="n">
-        <v>15.5</v>
+        <v>6.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="G3" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="I3" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="K3" t="n">
+        <v>6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
         <v>5.8</v>
       </c>
-      <c r="L3" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.9</v>
-      </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="R3" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
-        <v>2.78</v>
+        <v>2.54</v>
       </c>
       <c r="T3" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
         <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Z3" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AA3" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AB3" t="n">
         <v>11</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD3" t="n">
         <v>30</v>
       </c>
       <c r="AE3" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AF3" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH3" t="n">
         <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
-        <v>140</v>
+        <v>990</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>5.7</v>
       </c>
       <c r="AO3" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G4" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H4" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
@@ -961,88 +961,88 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R4" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S4" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="T4" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="U4" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W4" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
         <v>18.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB4" t="n">
         <v>13.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI4" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK4" t="n">
         <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM4" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN4" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -1072,40 +1072,40 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="O5" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="R5" t="n">
         <v>1.23</v>
@@ -1114,70 +1114,70 @@
         <v>4.8</v>
       </c>
       <c r="T5" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U5" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V5" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W5" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="X5" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AA5" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK5" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL5" t="n">
         <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="G6" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L6" t="n">
         <v>1.62</v>
@@ -1231,40 +1231,40 @@
         <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="O6" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="P6" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="R6" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S6" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="T6" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U6" t="n">
         <v>1.64</v>
       </c>
       <c r="V6" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="W6" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="X6" t="n">
         <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>19.5</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1285,10 +1285,10 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="n">
         <v>140</v>
@@ -1342,67 +1342,67 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G7" t="n">
         <v>4.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P7" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="R7" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S7" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U7" t="n">
         <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1411,19 +1411,19 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AH7" t="n">
         <v>1000</v>
